--- a/data/trans_dic/P43C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P43C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,63%</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>50,95; 64,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>65,77; 76,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>86,45; 94,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>50,95; 64,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>65,77; 76,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>86,45; 94,89</t>
         </is>
       </c>
     </row>
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,55%</t>
         </is>
       </c>
     </row>
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>49,79; 58,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>68,92; 76,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>69,51; 77,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>54,24; 63,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>49,79; 58,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>68,92; 76,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>69,51; 77,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>54,24; 63,07</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,46%</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>51,15; 62,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>50,73; 62,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>74,3; 83,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>57,13; 68,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>51,15; 62,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>50,73; 62,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>74,3; 83,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>57,13; 68,01</t>
         </is>
       </c>
     </row>
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,39%</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>51,75; 62,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>64,68; 72,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>64,47; 74,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>62,76; 75,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>51,75; 62,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>64,68; 72,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>64,47; 74,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>62,76; 75,76</t>
         </is>
       </c>
     </row>
@@ -1236,42 +1236,42 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,17%</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>34,36; 48,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>56,63; 69,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>37,43; 50,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>34,02; 44,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>34,36; 48,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>56,63; 69,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>37,43; 50,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>34,02; 44,73</t>
         </is>
       </c>
     </row>
@@ -1376,42 +1376,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,25%</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>40,16; 51,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>48,65; 59,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>18,31; 28,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>35,56; 46,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>40,16; 51,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>48,65; 59,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>18,31; 28,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>35,56; 46,48</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,5%</t>
         </is>
       </c>
     </row>
@@ -1584,42 +1584,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>59,45; 67,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>60,05; 67,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>58,12; 65,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,52; 75,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>59,45; 67,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>60,05; 67,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>58,12; 65,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,52; 75,1</t>
         </is>
       </c>
     </row>
@@ -1656,42 +1656,42 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,36%</t>
         </is>
       </c>
     </row>
@@ -1724,42 +1724,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>43,62; 50,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>62,03; 69,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>63,2; 69,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>37,99; 45,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>43,62; 50,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>62,03; 69,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>63,2; 69,86</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>37,99; 45,05</t>
         </is>
       </c>
     </row>
@@ -1796,42 +1796,42 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,92%</t>
         </is>
       </c>
     </row>
@@ -1864,42 +1864,42 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>51,94; 55,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>63,41; 66,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>62,12; 65,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>47,89; 58,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>51,94; 55,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>63,41; 66,85</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>62,12; 65,44</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>47,89; 58,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P43C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Provincia-trans_dic.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>90,73%</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,01; 76,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,45; 94,89</t>
+          <t>83,0; 94,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,01; 76,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,45; 94,89</t>
+          <t>83,0; 94,76</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>58,59%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,24; 63,07</t>
+          <t>54,26; 63,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,24; 63,07</t>
+          <t>54,26; 63,09</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>62,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>62,52%</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,13; 68,01</t>
+          <t>57,24; 68,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,13; 68,01</t>
+          <t>57,24; 68,1</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>67,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>67,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>75,91%</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,68; 72,55</t>
+          <t>61,97; 71,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,76; 75,76</t>
+          <t>66,15; 86,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,68; 72,55</t>
+          <t>61,97; 71,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,76; 75,76</t>
+          <t>66,15; 86,13</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>39,76%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 44,73</t>
+          <t>34,67; 45,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 44,73</t>
+          <t>34,67; 45,27</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>41,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>41,18%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,56; 46,48</t>
+          <t>35,51; 46,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,56; 46,48</t>
+          <t>35,51; 46,36</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>51,3%</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,52; 75,1</t>
+          <t>19,67; 75,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,52; 75,1</t>
+          <t>19,67; 75,43</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>41,79%</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,99; 45,05</t>
+          <t>38,53; 45,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>37,99; 45,05</t>
+          <t>38,53; 45,54</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>55,97%</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,89; 58,84</t>
+          <t>41,62; 61,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>47,89; 58,84</t>
+          <t>41,62; 61,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P43C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -744,49 +745,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,95; 64,3</t>
+          <t>50,86; 63,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,01; 76,92</t>
+          <t>66,23; 77,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,77; 76,42</t>
+          <t>65,59; 76,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>83,0; 94,76</t>
+          <t>81,19; 94,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,95; 64,3</t>
+          <t>50,86; 63,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,01; 76,92</t>
+          <t>66,23; 77,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,77; 76,42</t>
+          <t>65,59; 76,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,0; 94,76</t>
+          <t>81,19; 94,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -884,49 +885,49 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,79; 58,87</t>
+          <t>50,24; 59,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,92; 76,99</t>
+          <t>68,74; 76,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,51; 77,66</t>
+          <t>69,88; 77,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,26; 63,09</t>
+          <t>53,79; 63,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,79; 58,87</t>
+          <t>50,24; 59,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,92; 76,99</t>
+          <t>68,74; 76,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>69,51; 77,66</t>
+          <t>69,88; 77,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,26; 63,09</t>
+          <t>53,79; 63,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,15; 62,43</t>
+          <t>51,34; 62,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,73; 62,67</t>
+          <t>50,72; 62,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,3; 83,06</t>
+          <t>74,01; 83,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,24; 68,1</t>
+          <t>57,11; 67,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,15; 62,43</t>
+          <t>51,34; 62,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,73; 62,67</t>
+          <t>50,72; 62,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74,3; 83,06</t>
+          <t>74,01; 83,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,24; 68,1</t>
+          <t>57,11; 67,52</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,75; 62,32</t>
+          <t>51,55; 61,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,97; 71,67</t>
+          <t>61,81; 72,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,47; 74,38</t>
+          <t>65,05; 74,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,15; 86,13</t>
+          <t>67,25; 87,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,75; 62,32</t>
+          <t>51,55; 61,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,97; 71,67</t>
+          <t>61,81; 72,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>64,47; 74,38</t>
+          <t>65,05; 74,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>66,15; 86,13</t>
+          <t>67,25; 87,75</t>
         </is>
       </c>
     </row>
@@ -1304,49 +1305,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,36; 48,69</t>
+          <t>34,26; 48,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,63; 69,55</t>
+          <t>56,58; 69,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,43; 50,73</t>
+          <t>36,8; 50,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,67; 45,27</t>
+          <t>34,61; 44,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,36; 48,69</t>
+          <t>34,26; 48,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,63; 69,55</t>
+          <t>56,58; 69,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,43; 50,73</t>
+          <t>36,8; 50,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,67; 45,27</t>
+          <t>34,61; 44,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1444,49 +1445,49 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,16; 51,96</t>
+          <t>40,34; 52,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,65; 59,87</t>
+          <t>47,84; 59,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 28,27</t>
+          <t>18,37; 28,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,51; 46,36</t>
+          <t>36,37; 47,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,16; 51,96</t>
+          <t>40,34; 52,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48,65; 59,87</t>
+          <t>47,84; 59,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 28,27</t>
+          <t>18,37; 28,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,51; 46,36</t>
+          <t>36,37; 47,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1584,42 +1585,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,45; 67,3</t>
+          <t>59,63; 67,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,05; 67,47</t>
+          <t>59,93; 67,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,12; 65,7</t>
+          <t>58,26; 65,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,67; 75,43</t>
+          <t>19,81; 76,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,45; 67,3</t>
+          <t>59,63; 67,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,05; 67,47</t>
+          <t>59,93; 67,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>58,12; 65,7</t>
+          <t>58,26; 65,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,67; 75,43</t>
+          <t>19,81; 76,02</t>
         </is>
       </c>
     </row>
@@ -1724,42 +1725,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,62; 50,82</t>
+          <t>43,71; 51,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,03; 69,11</t>
+          <t>62,27; 68,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>63,2; 69,86</t>
+          <t>62,87; 69,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,53; 45,54</t>
+          <t>38,5; 45,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,62; 50,82</t>
+          <t>43,71; 51,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>62,03; 69,11</t>
+          <t>62,27; 68,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63,2; 69,86</t>
+          <t>62,87; 69,95</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>38,53; 45,54</t>
+          <t>38,5; 45,51</t>
         </is>
       </c>
     </row>
@@ -1864,42 +1865,42 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>51,94; 55,49</t>
+          <t>51,98; 55,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,41; 66,85</t>
+          <t>63,58; 66,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>62,12; 65,44</t>
+          <t>62,29; 65,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>41,62; 61,12</t>
+          <t>43,79; 61,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,94; 55,49</t>
+          <t>51,98; 55,46</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63,41; 66,85</t>
+          <t>63,58; 66,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62,12; 65,44</t>
+          <t>62,29; 65,57</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>41,62; 61,12</t>
+          <t>43,79; 61,47</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que alguna vez le han realizado una citología vaginal</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>146234</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>200802</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>202807</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>168954</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>146234</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>200802</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>202807</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>168954</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>129470; 162146</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>185326; 216917</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>186355; 217537</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>151187; 176098</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>129470; 162146</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>185326; 216917</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>186355; 217537</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>151187; 176098</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>271606</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>379281</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>384163</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>232783</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>271606</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>379281</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>384163</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>232783</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>249803; 295088</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>356480; 397803</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>363723; 403471</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>213727; 251798</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>249803; 295088</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>356480; 397803</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>363723; 403471</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>213727; 251798</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>188097</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>192571</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>261239</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>155723</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>188097</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>192571</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>261239</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>155723</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>170178; 206412</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>172462; 211536</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>245418; 275363</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>142270; 168188</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>170178; 206412</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>172462; 211536</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>245418; 275363</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>142270; 168188</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>209068</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>260361</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>269888</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>290086</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>209068</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>260361</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>269888</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>290086</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>190609; 228484</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>239836; 279363</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>251138; 289254</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>257001; 335340</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>190609; 228484</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>239836; 279363</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>251138; 289254</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>257001; 335340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>84813</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>136664</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>94689</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>59724</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>84813</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>136664</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>94689</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>59724</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>69554; 99033</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>122485; 151310</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>79398; 108711</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51993; 67490</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>69554; 99033</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>122485; 151310</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>79398; 108711</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>51993; 67490</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>127365</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>152598</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>62742</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>86104</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>127365</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>152598</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>62742</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>86104</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>110843; 142929</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>133979; 167947</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>49682; 77114</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>76048; 98465</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>110843; 142929</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>133979; 167947</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>49682; 77114</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>76048; 98465</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>403613</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>438375</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>420196</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>337046</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>403613</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>438375</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>420196</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>337046</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>378934; 427350</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>412286; 464778</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>395102; 446497</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>130176; 499393</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>378934; 427350</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>412286; 464778</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>395102; 446497</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>130176; 499393</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>359553</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>532324</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>546503</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>240870</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>359553</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>532324</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>546503</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>240870</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>332473; 389991</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>505315; 558665</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>515548; 573595</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>221909; 262318</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>332473; 389991</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>505315; 558665</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>515548; 573595</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>221909; 262318</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1790349</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2292976</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2242226</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1571289</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1790349</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2292976</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2242226</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1571289</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1729293; 1845045</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2239652; 2357380</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2184223; 2299181</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1229447; 1725596</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1729293; 1845045</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2239652; 2357380</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2184223; 2299181</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1229447; 1725596</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>